--- a/Participants.xlsx
+++ b/Participants.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/512f0b414f2a6f27/Data Analytics U3/SAT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_F25DC773A252ABDACC1048D6A91B4A5E5ADE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A4DF218C-2DDD-48BF-BA63-9E0471D0E87F}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_F25DC773A252ABDACC1048D6A91B4A5E5ADE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ABAC880F-4408-4570-9CBC-97CB71389563}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Participants" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
